--- a/صيدليات دكتور مصطفي طلعت_2026-01-14_19-10.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-14_19-10.xlsx
@@ -161,6 +161,9 @@
     <t>0:4</t>
   </si>
   <si>
+    <t>IVERZINE 1% LOTION 60 ML</t>
+  </si>
+  <si>
     <t xml:space="preserve">IVY PRONT  SYRUP</t>
   </si>
   <si>
@@ -182,6 +185,9 @@
     <t>3:0</t>
   </si>
   <si>
+    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
+  </si>
+  <si>
     <t>MEBO 0.25% HERBAL AND NATURAL OINT. 15 GM</t>
   </si>
   <si>
@@ -255,6 +261,9 @@
   </si>
   <si>
     <t>4:2</t>
+  </si>
+  <si>
+    <t>RUBALGINE 15% TOPICAL CREAM 20 GM</t>
   </si>
   <si>
     <t>SPINOBAC 5MG/5ML SYRUP 120ML</t>
@@ -1644,13 +1653,13 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
@@ -1670,17 +1679,17 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1">
@@ -1696,13 +1705,13 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
@@ -1714,7 +1723,7 @@
         <v>32</v>
       </c>
       <c t="s" r="B35" s="7">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1722,17 +1731,17 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="24.75" customHeight="1">
@@ -1748,17 +1757,17 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1766,7 +1775,7 @@
         <v>34</v>
       </c>
       <c t="s" r="B37" s="7">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -1774,17 +1783,17 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>109</v>
+        <v>30</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
@@ -1800,17 +1809,17 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1">
@@ -1832,7 +1841,7 @@
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>60</v>
+        <v>109</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
@@ -1852,17 +1861,17 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1">
@@ -1870,7 +1879,7 @@
         <v>38</v>
       </c>
       <c t="s" r="B41" s="7">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -1878,17 +1887,17 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>260</v>
+        <v>60</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -1896,7 +1905,7 @@
         <v>39</v>
       </c>
       <c t="s" r="B42" s="7">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -1904,13 +1913,13 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
@@ -1922,7 +1931,7 @@
         <v>40</v>
       </c>
       <c t="s" r="B43" s="7">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -1930,17 +1939,17 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>75</v>
+        <v>260</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1">
@@ -1956,17 +1965,17 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>21.559999999999999</v>
+        <v>41</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="25.5" customHeight="1">
@@ -1988,7 +1997,7 @@
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
@@ -2008,17 +2017,17 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>53</v>
+        <v>21.559999999999999</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2034,17 +2043,17 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" ht="25.5" customHeight="1">
@@ -2052,7 +2061,7 @@
         <v>45</v>
       </c>
       <c t="s" r="B48" s="7">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -2060,17 +2069,17 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1">
@@ -2078,7 +2087,7 @@
         <v>46</v>
       </c>
       <c t="s" r="B49" s="7">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -2086,17 +2095,17 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
@@ -2112,17 +2121,17 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
-        <v>49</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" ht="24.75" customHeight="1">
@@ -2130,7 +2139,7 @@
         <v>48</v>
       </c>
       <c t="s" r="B51" s="7">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -2138,13 +2147,13 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
@@ -2156,7 +2165,7 @@
         <v>49</v>
       </c>
       <c t="s" r="B52" s="7">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -2164,17 +2173,17 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53" ht="25.5" customHeight="1">
@@ -2190,17 +2199,17 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>230</v>
+        <v>45</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" ht="24.75" customHeight="1">
@@ -2216,13 +2225,13 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
@@ -2242,17 +2251,17 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>144</v>
+        <v>230</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
-        <v>56</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" ht="24.75" customHeight="1">
@@ -2268,17 +2277,17 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2286,7 +2295,7 @@
         <v>54</v>
       </c>
       <c t="s" r="B57" s="7">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -2300,11 +2309,11 @@
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>39</v>
+        <v>144</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
-        <v>9</v>
+        <v>57</v>
       </c>
     </row>
     <row r="58" ht="25.5" customHeight="1">
@@ -2312,7 +2321,7 @@
         <v>55</v>
       </c>
       <c t="s" r="B58" s="7">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -2320,17 +2329,17 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>25</v>
+        <v>83</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" ht="24.75" customHeight="1">
@@ -2346,13 +2355,13 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
@@ -2378,7 +2387,7 @@
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
@@ -2404,7 +2413,7 @@
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
@@ -2424,13 +2433,13 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>531</v>
+        <v>29</v>
       </c>
       <c r="M62" s="9"/>
       <c t="s" r="N62" s="7">
@@ -2450,17 +2459,17 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>-96</v>
+        <v>23</v>
       </c>
       <c r="M63" s="9"/>
       <c t="s" r="N63" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64" ht="24.75" customHeight="1">
@@ -2476,13 +2485,13 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="M64" s="9"/>
       <c t="s" r="N64" s="7">
@@ -2502,13 +2511,13 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>25</v>
+        <v>531</v>
       </c>
       <c r="M65" s="9"/>
       <c t="s" r="N65" s="7">
@@ -2528,17 +2537,17 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>53</v>
+        <v>-96</v>
       </c>
       <c r="M66" s="9"/>
       <c t="s" r="N66" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -2554,13 +2563,13 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>93</v>
+        <v>9</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>14.67</v>
+        <v>11</v>
       </c>
       <c r="M67" s="9"/>
       <c t="s" r="N67" s="7">
@@ -2572,7 +2581,7 @@
         <v>65</v>
       </c>
       <c t="s" r="B68" s="7">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
@@ -2580,17 +2589,17 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="M68" s="9"/>
       <c t="s" r="N68" s="7">
-        <v>32</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69" ht="24.75" customHeight="1">
@@ -2598,7 +2607,7 @@
         <v>66</v>
       </c>
       <c t="s" r="B69" s="7">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
@@ -2612,7 +2621,7 @@
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="M69" s="9"/>
       <c t="s" r="N69" s="7">
@@ -2624,7 +2633,7 @@
         <v>67</v>
       </c>
       <c t="s" r="B70" s="7">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
@@ -2632,13 +2641,13 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>42</v>
+        <v>14.67</v>
       </c>
       <c r="M70" s="9"/>
       <c t="s" r="N70" s="7">
@@ -2664,11 +2673,11 @@
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>192</v>
+        <v>34</v>
       </c>
       <c r="M71" s="9"/>
       <c t="s" r="N71" s="7">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -2690,11 +2699,11 @@
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="M72" s="9"/>
       <c t="s" r="N72" s="7">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73" ht="25.5" customHeight="1">
@@ -2710,17 +2719,17 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="M73" s="9"/>
       <c t="s" r="N73" s="7">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="24.75" customHeight="1">
@@ -2728,7 +2737,7 @@
         <v>71</v>
       </c>
       <c t="s" r="B74" s="7">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
@@ -2736,13 +2745,13 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>-4</v>
+        <v>192</v>
       </c>
       <c r="M74" s="9"/>
       <c t="s" r="N74" s="7">
@@ -2754,7 +2763,7 @@
         <v>72</v>
       </c>
       <c t="s" r="B75" s="7">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
@@ -2762,17 +2771,17 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="M75" s="9"/>
       <c t="s" r="N75" s="7">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76" ht="24.75" customHeight="1">
@@ -2780,7 +2789,7 @@
         <v>73</v>
       </c>
       <c t="s" r="B76" s="7">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
@@ -2788,17 +2797,17 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c t="s" r="H76" s="8">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="M76" s="9"/>
       <c t="s" r="N76" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -2820,45 +2829,123 @@
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>20</v>
+        <v>-4</v>
       </c>
       <c r="M77" s="9"/>
       <c t="s" r="N77" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="78" ht="25.5" customHeight="1">
-      <c r="K78" s="10">
-        <v>4315.21</v>
-      </c>
-      <c r="L78" s="10"/>
-      <c r="M78" s="10"/>
-      <c r="N78" s="10"/>
-    </row>
-    <row r="79" ht="17.25" customHeight="1">
-      <c t="s" r="A79" s="11">
+      <c r="A78" s="6">
+        <v>75</v>
+      </c>
+      <c t="s" r="B78" s="7">
         <v>105</v>
       </c>
-      <c r="B79" s="11"/>
-      <c r="C79" s="11"/>
-      <c r="D79" s="11"/>
-      <c r="E79" s="11"/>
-      <c t="s" r="F79" s="12">
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c t="s" r="H78" s="8">
+        <v>12</v>
+      </c>
+      <c r="I78" s="8"/>
+      <c r="J78" s="8"/>
+      <c r="K78" s="8"/>
+      <c r="L78" s="9">
+        <v>40</v>
+      </c>
+      <c r="M78" s="9"/>
+      <c t="s" r="N78" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" ht="24.75" customHeight="1">
+      <c r="A79" s="6">
+        <v>76</v>
+      </c>
+      <c t="s" r="B79" s="7">
         <v>106</v>
       </c>
-      <c r="G79" s="12"/>
-      <c r="H79" s="13"/>
-      <c t="s" r="I79" s="14">
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c t="s" r="H79" s="8">
+        <v>65</v>
+      </c>
+      <c r="I79" s="8"/>
+      <c r="J79" s="8"/>
+      <c r="K79" s="8"/>
+      <c r="L79" s="9">
+        <v>80</v>
+      </c>
+      <c r="M79" s="9"/>
+      <c t="s" r="N79" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" ht="25.5" customHeight="1">
+      <c r="A80" s="6">
+        <v>77</v>
+      </c>
+      <c t="s" r="B80" s="7">
         <v>107</v>
       </c>
-      <c r="J79" s="14"/>
-      <c r="K79" s="14"/>
-      <c r="L79" s="14"/>
-      <c r="M79" s="14"/>
-      <c r="N79" s="14"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+      <c t="s" r="H80" s="8">
+        <v>9</v>
+      </c>
+      <c r="I80" s="8"/>
+      <c r="J80" s="8"/>
+      <c r="K80" s="8"/>
+      <c r="L80" s="9">
+        <v>20</v>
+      </c>
+      <c r="M80" s="9"/>
+      <c t="s" r="N80" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="K81" s="10">
+        <v>4459.21</v>
+      </c>
+      <c r="L81" s="10"/>
+      <c r="M81" s="10"/>
+      <c r="N81" s="10"/>
+    </row>
+    <row r="82" ht="16.5" customHeight="1">
+      <c t="s" r="A82" s="11">
+        <v>108</v>
+      </c>
+      <c r="B82" s="11"/>
+      <c r="C82" s="11"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="11"/>
+      <c t="s" r="F82" s="12">
+        <v>109</v>
+      </c>
+      <c r="G82" s="12"/>
+      <c r="H82" s="13"/>
+      <c t="s" r="I82" s="14">
+        <v>110</v>
+      </c>
+      <c r="J82" s="14"/>
+      <c r="K82" s="14"/>
+      <c r="L82" s="14"/>
+      <c r="M82" s="14"/>
+      <c r="N82" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="233">
+  <mergeCells count="242">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -3088,10 +3175,19 @@
     <mergeCell ref="B77:G77"/>
     <mergeCell ref="H77:K77"/>
     <mergeCell ref="L77:M77"/>
-    <mergeCell ref="K78:N78"/>
-    <mergeCell ref="A79:E79"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="I79:N79"/>
+    <mergeCell ref="B78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="B79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="B80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="K81:N81"/>
+    <mergeCell ref="A82:E82"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="I82:N82"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
